--- a/public/excel/contracting.xlsx
+++ b/public/excel/contracting.xlsx
@@ -11,90 +11,90 @@
     <sheet name="Закупки" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_20B4BDC9_B8CB_4436_B1CF_D33EE04B07DD_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AJ$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AH$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_A16762B0_A3C0_437A_B3E8_DA1B0668A558_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">Организация-грантополучатель</t>
   </si>
   <si>
-    <t xml:space="preserve">Последняя дата сверки</t>
-  </si>
-  <si>
     <t xml:space="preserve">Федеральный бюджет, законтрактовано (руб.)</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Средства ОО (объявлено)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комментарии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Страны-производители 07.09</t>
   </si>
   <si>
     <t xml:space="preserve">Куратор</t>
@@ -396,24 +387,24 @@
     <tabColor rgb="FF00FF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="54.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29"/>
@@ -426,10 +417,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="59.3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="23" style="0" width="43.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="21" style="0" width="43.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -448,58 +438,49 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:S1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="8" scale="60" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/excel/contracting.xlsx
+++ b/public/excel/contracting.xlsx
@@ -11,90 +11,90 @@
     <sheet name="Закупки" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_20B4BDC9_B8CB_4436_B1CF_D33EE04B07DD_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AH$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AF$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_A16762B0_A3C0_437A_B3E8_DA1B0668A558_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,12 +106,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">№ п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Субъект РФ</t>
@@ -387,46 +384,44 @@
     <tabColor rgb="FF00FF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="54.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="21" style="0" width="43.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="19" style="0" width="43.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -438,49 +433,46 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:Q1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="8" scale="60" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/excel/contracting.xlsx
+++ b/public/excel/contracting.xlsx
@@ -11,90 +11,90 @@
     <sheet name="Закупки" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_02110F06_B175_4B53_822E_0C363592C2B6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0368FB3C_C2FA_42D2_BA4C_A6DC4D9198B8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0675A343_E27A_49A2_97ED_4F309A6146D1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0A3D34C7_E4C5_450A_95E5_67CFA9A1408B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0C622906_0B07_431A_BFB3_62AC1E010823_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0EDF0BE6_4F2F_4B4E_8CD7_6C1ABD59BAF1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1BD17C7D_2C75_4397_9D92_63CF14EBB2FA_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1EEF9BF2_8C92_4394_B349_F7ADDA6358A3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_20B4BDC9_B8CB_4436_B1CF_D33EE04B07DD_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AF$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2170DD88_C7E4_4CE7_9224_4BC813F8F195_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_243FB387_8AEA_4329_A1F6_438170E3F298_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_25186F22_DC0F_495C_AFAC_8B50E075D1C9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2FD6CEBC_49C7_4659_A707_D8829AD85924_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_331D7557_6BC3_49AB_B4ED_5FE27DB787EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35920010_EDF9_4EC6_AA9C_528633C3FD7D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_35FEDBA7_6DE9_42A9_9D38_C95A3854E533_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_3CFF32E4_BD0A_4208_B8DB_8E85CC78D762_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40282504_FD47_42CD_9744_6BE750CFB419_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_408ED163_C173_48A5_A05B_BF44EE7FAF77_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_40D704B6_15EF_478D_9F18_B8356D4C8852_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_43A942B6_EE13_4D16_8903_DB9D7F6E6828_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_45D0EFC4_B21D_4375_8568_BBBC449994B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55344B5C_D6BD_4F2B_A1C4_77D8EEB04E29_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5B38A754_87F1_44CA_8CF5_59660E9014C8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E0815A2_AA34_447A_A94A_8BA89D75B27F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$AJ$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5E098D99_7C52_4EE1_B5F4_CE7D2069471F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_60EA241B_0F38_4A4F_9961_D71BF1E63D2D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6351391B_0122_437F_A113_355FF6C1B59B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C2E8321_8E8A_4107_9C10_3BF2000FABDB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6F3AD962_6876_4469_9DA7_64A5B93FCD4A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71C42F2C_7B88_4048_B91B_6F22B6D74237_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783A99D9_E697_42CC_91A2_4DE52A12EED5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_783AB1D6_19E6_4164_A507_B855F88024E2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_84A205F1_F4A1_46ED_BE04_4511C6D29441_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_87638440_1571_4B22_BC3E_F54DC29595CB_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8864B8E6_B131_4B4B_9F98_998C484B1C64_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_88D425F6_F082_4301_B63A_31DD1AC60636_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89FB29BC_17A6_4C1F_BEE4_A69827E832B3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8CFE95C0_FD32_4CEC_97E9_BF9FE9B0D3F0_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F0F52A2_54DB_4E45_8F50_5C0DDD32B940_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8F35E7B8_6E9D_48FB_A656_492F7F62AFB4_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_93005E6D_DFB6_406C_8D67_F668E1C80A42_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96F7FFFC_07E1_4946_84F4_7C65D0F65D3D_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_990F82BC_F7BB_487F_9805_A5758F799929_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9967DF60_7A5A_43B5_9013_292918DC5F12_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9B10DA77_FC4B_4ACD_BB41_094AD4E4E7DD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9BC3F30C_6942_48EC_AC43_6F52848DF5B9_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_A16762B0_A3C0_437A_B3E8_DA1B0668A558_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A45AE281_9AB3_41F5_9FB4_7D0CFC992F06_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A480DF2B_3F02_4919_9386_6B24CE488735_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A5C48C34_6344_4DCC_BA55_71644A2B7ED6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A77EF820_B834_41B3_998D_FF4450BA0E1B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A8D80D44_D4AC_494A_B84A_20C86C23991F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AD5062E4_30B1_48BA_BA3F_0BD2E99B7DD2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE0324EF_5F08_461D_BB54_6226C2B85D22_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AEEA330F_2269_406D_8B4F_DB0C3BA47E73_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF3D5871_E2F2_4D54_A27D_68192847D52E_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B254A02D_D11A_4420_8F05_19240050A8BD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B400859D_6F42_4DB2_B406_E25EE8908EDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B405B664_43D4_4A96_AD6C_CFE02921E53F_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BAAB7EF6_5D2E_43A2_8367_B3C0D59094F8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BEE7AC39_7F50_4A6E_8C61_534D7A6B08EF_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C58C5308_E0E9_4AA7_BD9E_D1E0578B7DB2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA47A216_590A_4C2C_8A87_6A65835DC7B2_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CD5993EC_BCD6_4BF1_A686_9C7DE0064E25_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0F1BB4E_5CAF_4364_AA39_7A07638B1C3B_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D1B628D7_23E7_4E24_AF90_B6CD1C64C5C1_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4063E1D_506B_4327_8682_4A695E6302CE_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D45C366C_E9CF_4AA2_A196_EA99B389E450_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7A00842_4BAF_4F87_B545_200ECD1BCA08_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7DB17AD_9891_4742_B469_666D6FFD2337_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DA8C036F_FA4F_4E17_9E7C_CB300DBA2DC3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DCDE4C8B_2FB6_4518_8931_3390936BA151_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5328239_7EC0_40FA_97B4_206217C4F3F3_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC25CD22_1EBE_454D_83AD_025C2D1A42EC_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EC31F1F4_2D7D_4C46_9E52_B1D2ED0D392A_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EE8D349F_58A7_4221_894B_4540203CFE27_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F0E12DAD_E064_480B_B442_69FF1EA3FEF8_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F104A7B7_A990_40F6_9240_4189BFBBD355_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F90B487C_22D3_4CE1_BBF0_7EDD792D61C5_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FA151C99_A676_4A9C_940E_499552B45486_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FABE1EE6_C863_4FFE_AA1C_830D2A9ABDDD_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FDF5AA86_6561_4608_8709_0211BFE582F6_.wvu.FilterData" vbProcedure="false">Закупки!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t xml:space="preserve">Средства ОО (объявлено)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средства ФБ (расходование)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средства РД (расходование)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средства субъекта РФ (расходование)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОО (расходование)</t>
   </si>
   <si>
     <t xml:space="preserve">Куратор</t>
@@ -384,17 +396,17 @@
     <tabColor rgb="FF00FF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="T5" activeCellId="0" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
@@ -412,9 +424,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="19" style="0" width="43.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="23" style="0" width="43.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -469,10 +480,22 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:U1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="8" scale="60" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
